--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/123.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/123.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-7.114716970913104</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8.357988338230509</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2.823203985300455</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-13.54986199333644</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.616052864353673</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-12.7827524189041</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-7.958257990805778</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>8.062983685259761</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.206532462869749</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-13.95677255376967</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-6.552785792664261</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-12.61596382409008</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-8.878696867239459</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7.74108617829839</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.533644684031223</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-14.38327782123408</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.48400069363898</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-12.49597972211028</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-9.777339601433487</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>7.426811256636222</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.8766909971942369</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-14.94278889877779</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-6.34411670124596</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-12.4433619113091</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-10.64808287800867</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>7.122293382490211</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.2401332372879807</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-15.42226825518393</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-6.233424368139278</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-12.35797301021468</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-11.46577026149447</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.836330308833781</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-0.3576379578943531</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-16.00947547975855</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-6.137169890010699</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-12.14546909204886</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-12.22959446006195</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6.569204363188921</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-0.9160324168383341</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-16.58159835741361</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-6.019228143076092</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-12.04422929891241</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-12.95512138782237</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6.315471806623827</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-1.446429616921636</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-17.13995467408536</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-5.881493239610323</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-11.86039139457114</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-13.66598178506548</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>6.066868454974093</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-1.966104834920377</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-17.80567658100496</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-5.756148459373995</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-11.64293490027858</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-14.38180652047267</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.816528966227541</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-2.489409237394217</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-18.35993462869977</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-5.667331856077278</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-11.38572537515044</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-15.13038209212703</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5.554735797276052</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-3.036656172090129</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-19.07729472472884</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.4931099520257</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-10.99400176367064</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-15.92023428710157</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>5.278507294830141</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-3.614078424338348</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-19.75471820848426</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-5.326290289422886</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-10.58745352926598</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-16.74411988998263</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.990376568956907</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-4.216380834127557</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-20.51745361407019</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.155395751499646</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-10.16849405963459</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-17.59029422018597</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4.694450990060754</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-4.834977440745057</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-21.30582923948754</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-4.970604194168424</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-9.737467651512562</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-18.42971657101548</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4.400886725297605</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-5.448638005958895</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-22.10138249620706</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-4.773021836011157</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-9.407048722328982</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-19.22735463516903</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4.121935334952867</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-6.03175212580672</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-22.95080195124781</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-4.530905667511732</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-9.004400310569585</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-19.95676680202371</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3.866844025720524</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-6.564989633890188</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-23.76643899019134</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-4.286680794585899</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-8.783921288199664</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-20.59211528400295</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3.644648834234015</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-7.029461789264476</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-24.52285264606256</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-4.019405082060845</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-8.624359614297871</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-21.11458284068008</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3.461930558997534</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-7.411412229134879</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-25.32294796221176</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-3.799566904673907</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-8.524593013926394</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-21.52003927954219</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>3.320133618219847</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-7.707821572054846</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-25.98163262052345</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-3.575337902636413</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-8.440339629951943</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-21.80594461182974</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3.220146301248932</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-7.916832956652667</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-26.51857831208693</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-3.396271442189505</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-8.496536140481071</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-21.97274902461045</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>3.161811167869618</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-8.038775492643063</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-27.01301974661442</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-3.221564132274845</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-8.536292481862178</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-22.03337386529728</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3.14060934167923</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-8.083095344223281</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-27.46214927022116</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-3.09122117616939</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-8.609683965922281</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-22.00317699164214</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3.151169845582845</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-8.061019888957416</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-27.67858768541776</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-3.006631483960981</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-8.722484184081869</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-21.90117649189245</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3.186841640222222</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-7.986452319644262</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-27.84812016684292</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-2.931892442546605</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-8.821307278974652</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-21.75613282626676</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3.237566566733747</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-7.8804180000427</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-27.92604614756691</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-2.897922742513386</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-8.906861707346039</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-21.59076574237821</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3.295399034918319</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-7.759526224804018</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-27.91351133151368</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-2.914742491188311</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-8.933402350934376</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-21.41453178398461</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3.357031885617365</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-7.63069020988159</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-27.81013079839257</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-2.868183120980306</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-8.954477283837376</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-21.23353400525036</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>3.420330747966427</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-7.498371599243275</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-27.66881976698322</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-2.882814979933051</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-8.929250926828129</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-21.04642109389745</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>3.485768205278265</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-7.361582514670814</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-27.41048843874166</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-2.911233790732655</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-8.820615374956946</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-20.8438815947624</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3.556600676072402</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-7.213515807375591</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-27.20816527702696</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-2.891259299874175</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-8.80015289297871</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-20.61954464278686</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3.635056190511383</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-7.049514049962742</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-26.90682703113455</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-2.879556505012035</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-8.715035456618509</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-20.36561977392101</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3.723859243420347</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-6.863882015747689</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-26.56907985422047</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-2.886584991864755</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-8.580700139725963</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-20.07092953118187</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3.826918834765634</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-6.648448413409607</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-26.26475734395701</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-2.882111022653639</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-8.432215551198571</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-19.73374437345275</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3.944839822716432</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-6.401948860152181</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-25.86804490698905</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-2.865164577505479</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-8.365412052761618</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-19.35588753784313</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>4.076984581575728</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-6.125716235322767</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-25.43498693763554</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-2.855705102072559</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-8.20560208794438</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-18.9362563317632</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>4.223738746940512</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-5.818944414379584</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-25.08832772387436</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-2.853969360389237</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-8.061166296611518</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-18.48256694354239</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>4.382403799821543</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-5.487274324666132</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-24.64487690667324</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-2.85435736833852</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-7.948918939556989</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-18.00498102032415</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.549425991060848</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-5.13813464868459</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-24.27576099030803</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-2.858737898900626</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-7.856117727000139</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-17.50720540184197</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>4.723508958130214</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-4.774235275400588</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-23.79461968394107</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-2.887208180142481</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-7.765769628687888</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-17.00035401384297</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.900765919319143</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-4.403701051560207</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-23.37584905008176</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-2.927294944274084</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-7.65719697718195</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-16.49766078134804</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>5.076568683032733</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-4.036206651539557</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-22.87663460395018</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-2.939841062536195</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-7.572884003387792</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-16.00288442990226</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>5.249602741145244</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-3.67449989547973</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-22.50019614511457</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-2.990967840604327</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-7.555156032024995</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-15.52545853047451</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>5.416568968582355</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-3.325477205053338</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-22.07193382973518</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-3.033316928636135</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-7.491815364222119</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-15.07499695296676</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>5.574105185808919</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-2.996166809651839</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-21.61502891625727</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-3.102109946190994</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-7.409922399217168</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-14.64838072958041</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>5.72330216374343</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-2.684288584686832</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-21.17702585328738</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-3.146582783855407</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-7.398563917471929</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-14.24820524922863</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>5.863252238398482</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-2.391739891868825</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-20.64237156957178</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-3.257555432909122</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-7.315945942993877</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-13.87456829245834</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>5.993921213788786</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-2.118592213766309</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-20.22369603366662</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-3.319825957651243</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-7.375065665234182</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-13.51469428357527</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>6.11977698677449</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-1.855505952745596</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-19.79177471128903</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-3.401591110359467</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-7.33909658795</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-13.16229808849059</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>6.243017605532302</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-1.597886355124479</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-19.46956472869527</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-3.468691938143678</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-7.311532985790028</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-12.80842291714761</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>6.366775454475182</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-1.339185550402181</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-18.950456696248</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-3.520243941250106</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-7.363690630761246</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-12.43369432940996</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>6.497826196972362</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-1.065239834368258</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-18.61102945547708</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-3.577948641838015</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-7.370222337110228</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-12.03225820577896</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>6.638217146018032</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-0.7717695469959793</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-18.286863172112</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-3.661759150736028</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-7.409703903211576</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-11.60480299788168</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>6.787707535095166</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-0.4592779815490614</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-17.85767704803504</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-3.718143040590461</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-7.424339825040694</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-11.1487807141306</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>6.947188452314855</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-0.1259024261802351</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-17.56084010530626</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-3.768998213094095</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-7.477464149309379</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-10.67582174644276</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>7.112592496506931</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.2198547092444609</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-17.26292085728964</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-3.817563346844004</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-7.514019193154011</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-10.20039011132109</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>7.278861286314245</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.5674194907170909</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-16.89346530537386</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-3.843404676266229</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-7.582140288715594</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-9.730322681114</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>7.443254096919636</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.9110627647190808</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-16.66497209236883</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-3.867985375779765</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-7.631639565618777</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-9.28311693793842</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>7.599651678022241</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>1.237992979113312</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-16.36547693539755</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-3.935132922888481</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-7.718998241309065</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-8.875341870877243</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>7.742259493542358</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>1.536097357541635</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-16.18621729180391</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-3.937552033674315</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-7.738252374165467</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-8.513559378185263</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>7.868782704851121</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>1.800578817596209</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-15.96486548230899</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-3.968533280645099</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-7.83280817585813</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-8.208138529479481</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>7.975595022637333</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>2.023857040364128</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-15.70702322926025</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-3.965269262753379</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-7.933948652628404</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-7.962008906556426</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>8.061671908389107</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>2.203790352086854</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-15.56872816154001</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-4.013579419850902</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-7.979422306155833</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-7.765829085858981</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>8.130280261225437</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>2.347207809977721</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-15.41813375841493</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-4.051200353872166</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-7.996157113856849</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-7.615567653979219</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>8.182829954152304</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>2.457056582917892</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-15.32303127577984</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-4.086590638111534</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-8.041329507740205</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-7.508115179440085</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>8.220408423029015</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>2.535609823958174</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-15.24280030178595</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-4.12633928103019</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-8.092563510505965</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-7.43776326891276</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>8.245012017236661</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>2.587040659860279</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-15.13203382755833</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-4.142017177740083</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-8.172973351109324</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-7.405265235642309</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>8.25637728673879</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>2.610798380208534</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-15.04782232491169</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-4.214302266838486</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-8.122878176009072</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-7.414524429434235</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>8.253139145158285</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>2.604029437148866</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-14.99880159377866</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-4.231107762160171</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-8.124993614608666</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-7.466874367329169</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>8.234831232564183</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>2.565758961689441</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-15.03404670698036</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-4.294117085711846</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-8.187950259128986</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-7.565223891164418</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>8.200436263659709</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>2.493860442040052</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-15.15228063484663</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-4.358436134055587</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-8.086005319792669</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-7.715261996864287</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>8.147964672758285</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>2.384174931931333</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-15.21259085168078</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-4.43572890125861</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-8.063308219575426</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-7.921432197564221</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>8.075862466610523</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>2.233453996556253</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-15.34915151385609</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-4.493872288385096</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-8.056978456504339</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-8.186342749832356</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>7.983217481130039</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>2.039790867292031</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-15.49860927000524</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-4.55305458659211</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-7.966931617836163</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-8.513459285840321</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>7.868817709322497</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>1.800651990207006</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-15.66552882192797</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-4.677755590373812</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-7.887809579447581</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-8.904740469761082</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>7.731978163699434</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>1.514605481861027</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-15.9704807900785</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-4.717737038062039</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-7.853124993832638</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-9.357511084914844</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>7.573634425755567</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>1.183607062134762</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-16.34321042870183</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-4.799369951326323</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-7.757456848838778</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-9.870715220390071</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>7.394155770516861</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>0.8084286557763972</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-16.68608383819259</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-4.860036973829062</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-7.725665680025157</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-10.44638087834763</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>7.192832961491459</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>0.3875876897390533</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-17.16151473883588</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-4.904440920286153</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-7.683797210589995</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-11.0805089544925</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>6.971064572485399</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-0.07599228670603723</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-17.63640675107225</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-4.975536646242061</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-7.562687523126836</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-11.7724686960033</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>6.729071191487642</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-0.5818501610658595</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-18.32835757944428</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-5.070016581892389</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-7.542109172054727</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-12.53244799397203</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>6.463289891260247</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-1.137433801507936</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-19.02093333722937</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-5.101803935174132</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-7.443153655340372</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-13.36358748573898</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>6.172622322574385</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-1.745039174161211</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-19.78912102552053</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-5.114685799090317</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-7.430676209202859</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-14.26970712235005</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>5.855732565414217</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-2.407458858131529</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-20.74239197497919</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-5.2029449379048</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-7.356566336760734</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-15.26778872985114</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>5.506681705629346</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-3.137107434659664</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-21.68575009483506</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-5.22743694988707</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-7.385586578957986</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-16.36159536449701</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>5.124153720550609</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-3.936735889856419</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-22.93779617389778</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-5.227712514716357</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-7.309520174102151</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-17.55253137509007</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>4.70765747883841</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-4.807370874345277</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-24.20839088249592</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-5.277899363323676</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-7.419119094725263</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-18.86209519975568</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>4.249674508801363</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-5.764728843231568</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-25.50104831645943</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-5.33521684781526</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-7.389853872158106</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-20.29383101442292</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>3.748965334983778</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-6.811400769940897</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-27.11941624342463</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-5.337302588505894</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-7.540831301476569</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-21.84382158107461</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>3.206899900772654</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-7.944522953627877</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-28.66329077296366</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-5.317009772758411</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-7.634251586049262</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-23.53447476595721</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>2.615641687670416</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-9.180476687752771</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-30.58465889578208</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-5.373104636283276</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-7.789072558738819</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-25.3615818081321</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>1.976662590974211</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-10.51618515334133</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-32.40965882748028</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-5.372878166337368</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-7.998388421550318</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-27.30786040921306</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>1.296006606551145</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-11.93901410854212</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-34.44937861848917</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-5.347907083315676</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-8.278619480358545</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-29.38019710080914</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.5712653644232427</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-13.45399795930752</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-36.59000866004799</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-5.342620672969939</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-8.555043411796611</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-31.57089225127086</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-0.1948684066515625</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-15.05550788207176</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-38.78389129169999</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-5.324640067858998</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-8.903620683263092</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-33.82103857265793</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-0.9817935460581289</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-16.70047964394075</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-41.08779546360536</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-5.27903329675913</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-9.315058593429255</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-36.17064088106179</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-1.803500608624149</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-18.41815880649584</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-43.38433180830025</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-5.26271875027123</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-9.623757033329674</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-38.51738265327322</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-2.624207279428701</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-20.13374677115164</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-45.85206484861811</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-5.195858645786166</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-10.01896995980787</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-40.92693975886121</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-3.466881839389793</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-21.8952559493013</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-48.25147227310824</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-5.109988527345124</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-10.44693742385161</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-43.22147129159133</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-4.269329453175798</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-23.57267556516536</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-50.60479794609632</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-5.045882487447008</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-10.81214687610739</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-45.65686775952604</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-5.121040600501719</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-25.35307463549717</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-53.05864442086966</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-4.922563267076526</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-11.21416628421433</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-38.1937671932986</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-2.511031910105313</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-19.89716735926951</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-37.75149133702816</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-2.356358417744497</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-19.57384114372241</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-37.20466350064648</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-2.16512082253301</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-19.17408209654308</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-36.6509438321545</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-1.971473003642897</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-18.76928476847452</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-36.12584451283524</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-1.787834343734383</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-18.38541037584199</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-35.66551969833144</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-1.626848737872798</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-18.04888945098072</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-35.28406138305655</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-1.493444463194146</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-17.77002396077096</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-34.98288435440173</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-1.388116301639675</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-17.54984818697711</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-34.73771561132806</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-1.302375456483238</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-17.37061732744772</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-34.51895972031356</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-1.225871760525155</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-17.21069561033933</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-34.27902596502061</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-1.141961704526727</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-17.03529179396316</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-33.96182706229784</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-1.031030344920362</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-16.80340321280052</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-33.5255970085434</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-0.8784712012765674</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-16.48449678734535</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-32.94610170535368</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-0.6758090819674016</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-16.0608561552574</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-32.23148852771108</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-0.425893301338737</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-15.53843746332233</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-31.43261442314855</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-0.1465096407625459</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-14.9544197348736</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-30.62500750390715</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.1359280751625178</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-14.36401787335235</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-29.89064324876267</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.3927512374440412</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-13.82716013607687</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-29.30250115393993</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.5984373279707933</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-13.39719825815175</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-28.90779115082899</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.7364760062873991</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-13.10864510804173</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-28.71737783099177</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.8030676882742876</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-12.96944325648263</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-28.70983575160194</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.8057053175781421</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-12.96392961165691</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-28.83706286935802</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.7612112256051456</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-13.05693912577763</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-29.03667060296562</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.6914040570211206</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-13.2028625628956</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-29.25099803143141</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.616449090794691</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-13.35954684794374</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-29.43134004417069</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.5533795640857642</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-13.49138606018299</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-29.53718629536039</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.5163628264712193</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-13.56876507000641</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-29.54376134428448</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.5140633887670949</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-13.57357176622445</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-29.4417835701941</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.5497272357488194</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-13.4990208105277</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-29.23709689251254</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.6213106216105619</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-13.34938440616739</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-28.95031313350696</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.7216051435223148</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-13.13973084682196</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-28.60811487710945</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.8412793211794803</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-12.88956646267306</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-28.23813763977894</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.9706684130337795</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-12.61909422619743</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-27.86813848683408</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1.10006516925538</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-12.34860596828957</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-27.52075003605982</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1.221554470842332</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-12.09464728725108</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-27.20945157397467</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1.330422317944114</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-11.86707222923101</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-26.94386125455362</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1.423305032792012</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-11.67291215549675</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-26.72924837840809</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1.498359826284356</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-11.51601919363138</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-26.56455294452054</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>1.555957403846201</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-11.39561842881055</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-26.4497833395048</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>1.596094832496163</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-11.31171599207685</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-26.3840705219347</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>1.619076034934265</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-11.26367656980984</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-26.36400032943499</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>1.626095018046891</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-11.24900423512498</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-26.38751824440025</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1.617870291353924</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-11.26619703083262</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-26.44977522760562</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1.596097669403848</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-11.31171006186468</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-26.54035454070105</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>1.564420112301236</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-11.37792816103239</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-26.65023758132777</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>1.525991621566331</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-11.45825826988853</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-26.76927208322665</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>1.48436266565771</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-11.54527856383595</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-26.88449656522995</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>1.444066156625534</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-11.62951353885507</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-26.98592914945732</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>1.408592974404083</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-11.70366593294674</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-27.06285208676156</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>1.381691349124715</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-11.75990052467209</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-27.1016231354214</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>1.36813226961882</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-11.78824413931497</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-27.09289374952094</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>1.371185125849263</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-11.7818625128544</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-27.03123813572</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>1.392747435830771</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-11.73678911353843</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-26.91621582700659</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>1.4329732404635</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-11.65270193750896</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-26.75767444786655</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>1.488418611147031</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-11.53680010068424</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-26.56839884520426</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>1.554612408677257</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-11.39842997842559</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-26.36249555225369</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>1.626621271376246</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-11.24790416623275</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-26.15974980459448</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>1.697525871767951</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-11.0996866807437</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-25.9769205641819</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>1.761465236124745</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-10.96602917817859</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-25.82924354228417</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>1.813111104635367</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-10.85806974079013</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-25.7317690488841</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>1.847200056353029</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-10.78681091303231</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-25.69107883627439</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>1.861430309259711</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-10.75706429162764</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-25.70260938419387</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>1.857397825708429</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-10.76549371043749</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-25.75667299591231</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>1.838490604082891</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-10.80501696889237</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-25.83863143751076</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>1.80982795336218</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-10.8649327711648</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-25.93259121709144</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>1.776968173559256</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-10.93362216380233</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-26.02778973109948</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>1.743675181368021</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-11.00321713450565</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-26.11556473733186</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>1.712978351406651</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-11.06738514228264</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-26.18834668893595</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>1.68752491894852</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-11.12059246219091</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-26.24211278677659</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>1.66872174440096</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-11.15989822282216</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-26.27300236909218</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>1.657918985203097</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-11.18248008346033</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-26.27869542050707</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>1.655928001223196</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-11.18664199450023</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-26.26338109858656</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>1.661283752890396</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-11.17544644385005</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-26.23521196872494</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>1.671135110658835</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-11.15485337275136</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-26.20443231029231</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>1.681899427082511</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-11.13235187207987</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-26.18386952530426</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>1.689090680508792</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-11.1173194271543</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-26.18564093424872</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>1.688471180249048</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-11.11861441746877</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-26.21828041383326</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>1.677056443892529</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-11.14247554228912</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-26.28625474291775</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>1.65328434165968</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-11.19216824485393</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-26.38861074368696</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>1.617488220576872</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-11.26699570354977</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-26.51832555378759</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>1.572124128450358</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-11.36182384769473</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-26.66475183231505</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>1.520915672116738</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-11.46886892786745</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-26.81602315050125</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>1.468012799969958</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-11.57945597922134</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-26.95877044973399</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>1.418090962762773</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-11.68381153783059</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-27.0797581469732</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>1.375778931935481</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-11.77225971722249</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-27.17001256514312</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>1.344214997659135</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-11.83824030162374</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-27.22216051942496</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>1.325977723130381</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-11.87636311675693</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-27.22902601070362</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>1.323576711413853</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-11.88138214115432</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-27.18814384847015</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>1.337874093281437</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-11.85149519478155</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-27.09885790531131</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>1.369099330769107</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-11.78622261502433</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-26.96013379781909</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>1.417614170266331</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-11.6848082148379</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-26.77558923878737</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>1.482153418875393</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-11.54989672684781</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-26.55357380030581</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>1.559797049521517</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-11.38759211424111</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-26.30262346040273</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>1.64755984491636</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-11.20413461245628</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-26.04679458779313</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>1.737028769372096</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-11.01711065436357</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-25.80105617136746</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>1.822968841697755</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-10.83746333454952</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-25.59815903885532</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>1.893926384667179</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-10.68913517900943</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-25.44518008081375</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>1.94742645563542</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-10.57729975579864</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-25.40032786607043</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>1.96311225126751</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-10.54451049849178</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-25.44173460904399</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>1.948631412098458</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-10.57478094014932</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-25.68610697555067</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>1.863169077159351</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-10.75342960777765</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-34.52172928536726</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-1.226840337699564</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-17.21272030369491</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-34.50711668724559</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-1.221729994116708</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-17.20203774894315</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-34.44503976843152</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-1.200020344603082</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-17.15665635416789</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-34.25861370439036</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-1.134823092744291</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-17.0203693900228</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-33.89236484201547</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>-1.006737894754056</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-16.75262278585887</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-33.29978605746934</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>-0.7995001972736165</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-16.31941746138906</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-32.48082045663385</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>-0.513090103191654</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-15.72071182411032</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-31.46964698357698</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>-0.1594607330985147</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-14.98149242592283</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-30.31716182960811</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.2435884072311221</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-14.13896697936281</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-29.1130880033964</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.6646792289885984</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-13.25872758137431</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-27.96442550149188</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>1.066391504697457</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-12.41899668850243</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-26.9628704371591</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>1.416657107930576</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-11.68680883781692</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-26.19527741853868</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>1.685101091970258</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-11.12565917913161</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-25.70953594194905</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>1.854975457716048</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-10.77055737754479</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-25.49091417749375</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>1.931432246697329</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-10.61073371379423</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-25.49221583807502</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>1.930977027663509</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-10.61168529408897</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-25.63908557460409</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>1.879613484415574</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-10.7190545646858</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-25.83865640629146</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>1.809819221236164</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-10.86495102461738</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-26.01687243013948</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>1.74749319911124</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-10.99523603051062</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-26.1202068990264</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>1.711354886432881</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-11.07077879932128</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-26.11231231544102</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>1.71411579412561</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-11.06500745594408</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-25.98798949814397</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>1.757594189020655</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-10.97412113363435</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-25.76429000457798</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>1.835826770380554</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-10.81058539084159</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-25.46928160021333</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>1.93899762977056</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-10.59491919612286</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-25.13982647940274</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>2.05421525557912</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-10.35407069423411</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-24.81563421458144</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>2.167592346110623</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-10.11706960858087</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-24.52610263213529</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>2.268847841681503</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-9.905407250108299</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-24.28816854574026</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>2.352058569946749</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-9.731465293718257</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-24.11242802031622</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>2.413518856397566</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-9.602990003471191</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-24.00092747498448</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>2.452513023730202</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-9.521477416151699</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-23.9488039898359</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>2.470741740870525</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-9.483372489203322</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-23.95012440254784</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>2.4702799638085</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-9.484337778262308</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-23.99249050822934</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>2.455463614621491</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-9.51530956300539</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-24.0548920572893</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>2.433640434845824</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-9.560928279052808</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-24.11741307965027</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>2.411775472656644</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-9.60663433617872</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-24.16250341820556</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>2.396006399945123</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-9.639597674141051</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-24.17173456960045</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>2.392778065401161</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-9.646346116777778</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-24.13580349973989</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>2.405343942513372</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-9.620078671530964</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-24.05603210832256</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>2.433241734188113</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-9.561761714522753</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-23.93583933793385</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>2.475275761795479</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-9.473894667215202</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-23.78818784273655</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>2.526912703063414</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-9.365953891147104</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-23.63638137914531</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>2.580002727204917</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-9.254975621199378</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-23.4976060784558</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>2.628535470077375</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-9.153523796173877</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-23.39066311964976</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>2.665935750213429</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-9.075343037129638</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-23.34020990735523</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>2.683580336585888</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-9.038459164853755</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-23.35742147839087</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>2.67756107561255</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-9.051041701403456</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-23.45255332457891</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>2.644291398608886</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-9.120587934529011</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-23.64236451427659</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>2.577910294636191</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-9.259349598235827</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-23.92870609408426</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>2.477770412413266</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-9.468679902027901</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-24.31080698201014</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>2.344141416093998</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-9.748015145629164</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-24.79449771738001</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>2.174984239183845</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-10.10161775075691</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-25.36991720547443</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>1.973747521117074</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-10.52227875406488</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-26.02599234965638</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>1.744303764775792</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-11.00190315696956</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-26.76234631141736</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>1.486784758787711</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-11.54021547129519</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-27.56514999525563</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>1.206026838817818</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-12.12710592267895</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-28.41917666533855</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.907355125772218</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-12.75144299036947</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-29.31915601216853</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.5926127615820347</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-13.4093738092364</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-30.2455728562442</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.2686246292354044</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-14.08663178741306</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-31.17757635508179</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>-0.05731727786603237</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-14.76797389524802</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-32.10542566303763</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>-0.3818063740068312</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-15.44627907760442</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-33.00725765853799</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>-0.697196649756967</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-16.10556427717027</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-33.8615436213824</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>-0.9959590431243495</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-16.73009090109838</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-34.65572776540166</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>-1.273702522429108</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-17.31068002911138</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-35.3665681769847</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>-1.522298884658556</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-17.83034063657295</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-35.97465168314427</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>-1.734958920722557</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-18.27488070358254</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-36.47263083037152</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>-1.909113066223551</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-18.63892886676309</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-36.84804724035369</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>-2.040404355128988</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-18.91337741594998</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-37.09530311406676</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>-2.126875115293065</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-19.09413407446075</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-37.21990255400089</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>-2.170450251144544</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-19.18522262203129</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-37.22177406877046</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>-2.171104760589974</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-19.18659079481126</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-37.10659589304058</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>-2.130824445869395</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-19.10238967204053</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-36.88949769456677</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>-2.054900481069803</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-18.94367981275372</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-36.58018905807378</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>-1.946728519282955</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-18.71755941876107</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-36.19217559071247</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>-1.811031765257327</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-18.43390177793672</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-35.74685689402105</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>-1.655294125378768</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-18.10835109079824</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-35.2603702976677</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>-1.485159175035272</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-17.75270456864864</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-34.74989883878983</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>-1.30663619627498</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-17.37952388830226</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-34.23752238899188</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>-1.127447000730864</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-17.00495056240193</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-33.73728475735846</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>-0.9525030140807517</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-16.63925133189414</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-33.25782894042381</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>-0.7848268803135887</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-16.2887446682052</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-32.80968719454166</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>-0.6281019586939015</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-15.96113018807824</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-32.39685438830131</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>-0.4837253417092675</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-15.65932834426754</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-32.01797619310544</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>-0.3512233911744096</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-15.3823490534715</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-31.67713884894753</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>-0.2320251541454973</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-15.13317956560256</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-31.37757087224693</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>-0.1272597130778509</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-14.91418009087999</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-31.11535318627766</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>-0.03555648154798383</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-14.72248558426844</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-30.89371810987624</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.04195412820074642</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-14.56045903574813</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-30.7225058717105</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.1018307740464413</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-14.43529415451702</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-30.60504091877721</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.1429108245230841</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-14.34942128094078</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-30.55112951958243</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.1617648141164397</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-14.31000929760646</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-30.57611101909677</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.1530282400540961</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-14.32827204829056</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-30.67785433064797</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.11744638972502</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-14.40265159990905</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-30.8502912976716</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.05714142954346726</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-14.52871182042012</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-31.08837429608776</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>-0.02612137649640087</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-14.702762639095</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-31.36573245769899</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>-0.1231195618663706</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-14.90552560585758</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-31.65767966521751</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>-0.2252198540972593</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-15.11895390950161</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-31.95162003926065</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>-0.3280172000398671</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-15.33383931956512</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-32.21863569558079</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>-0.4213983862215436</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-15.52904138729233</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-32.44175949129566</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>-0.4994296335137706</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-15.69215626558422</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-32.6105619886057</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>-0.5584635405380892</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-15.81555950330647</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-32.71429766770463</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>-0.5947421651592852</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-15.8913955772516</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>